--- a/sle/deg_GSE61635_KEGG_enrichment.xlsx
+++ b/sle/deg_GSE61635_KEGG_enrichment.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,7 +452,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19/306</t>
+          <t>17/295</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -461,145 +461,81 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.1098265895953757</v>
+        <v>0.09826589595375723</v>
       </c>
       <c r="H2">
-        <v>3.099191507045978</v>
+        <v>2.876359361222691</v>
       </c>
       <c r="I2">
-        <v>5.345753217831755</v>
+        <v>4.688528542159655</v>
       </c>
       <c r="J2">
-        <v>1.096861961234557E-05</v>
+        <v>8.342823657085076E-05</v>
       </c>
       <c r="K2">
-        <v>0.00324671140525429</v>
-      </c>
-      <c r="L2">
-        <v>0.003221310391415174</v>
+        <v>0.02066034617645562</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>RIGI/JAK2/IRF7/MX2/EIF2AK2/TNFSF10/RSAD2/NXT2/OAS3/PML/OAS1/IFIH1/STAT1/SOCS3/MX1/OAS2/CCL2/CXCL10/HLA-DQA1</t>
+          <t>RIGI/JAK2/IRF7/MX2/EIF2AK2/TNFSF10/RSAD2/NXT2/PML/OAS1/IFIH1/STAT1/SOCS3/MX1/OAS2/CCL2/CXCL10</t>
         </is>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Human Diseases</t>
+          <t>Metabolism</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cancer: overview</t>
+          <t>Metabolism of cofactors and vitamins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hsa05202</t>
+          <t>hsa00860</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Transcriptional misregulation in cancer</t>
+          <t>Porphyrin metabolism</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19/306</t>
+          <t>8/295</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>198/8635</t>
+          <t>46/8635</t>
         </is>
       </c>
       <c r="G3">
-        <v>0.09595959595959595</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="H3">
-        <v>2.707879448075527</v>
+        <v>5.090641120117906</v>
       </c>
       <c r="I3">
-        <v>4.659787235392376</v>
+        <v>5.231581543654504</v>
       </c>
       <c r="J3">
-        <v>7.292491666627027E-05</v>
+        <v>0.0001419955063673926</v>
       </c>
       <c r="K3">
-        <v>0.010792887666608</v>
-      </c>
-      <c r="L3">
-        <v>0.01070844828941548</v>
+        <v>0.02066034617645562</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>BCL2L1/LYL1/PBX1/ID2/ATM/KMT2A/PML/FCGR1A/DDIT3/IGF1/TSPAN7/H3C4/ETV7/SSX4/GRIA3/BCL11B/ETV1/JUP/CCNA1</t>
+          <t>BLVRB/HMBS/ALAS2/FECH/HEPH/UGT2B28/UGT1A8/UGT2B15</t>
         </is>
       </c>
       <c r="N3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Metabolism</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Metabolism of cofactors and vitamins</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>hsa00860</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Porphyrin metabolism</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8/306</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>46/8635</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="H4">
-        <v>4.907644217107133</v>
-      </c>
-      <c r="I4">
-        <v>5.093225843532208</v>
-      </c>
-      <c r="J4">
-        <v>0.0001827964438005281</v>
-      </c>
-      <c r="K4">
-        <v>0.01803591578831877</v>
-      </c>
-      <c r="L4">
-        <v>0.01789480976152539</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>BLVRB/HMBS/ALAS2/FECH/HEPH/UGT2B28/UGT1A8/UGT2B15</t>
-        </is>
-      </c>
-      <c r="N4">
         <v>8</v>
       </c>
     </row>
